--- a/Data/Сантим_2024-01-10.xlsx
+++ b/Data/Сантим_2024-01-10.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vorotintsev\Desktop\PYTHON_parser\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC50FC09-186F-4E39-9EE3-97D364D5440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1179,8 +1162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,26 +1245,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1319,9 +1294,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1353,27 +1328,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1405,27 +1362,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1598,19 +1537,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="36.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1572,7 @@
         <v>130</v>
       </c>
       <c r="C2">
-        <v>158.86000000000001</v>
+        <v>158.86</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>255</v>
@@ -1644,7 +1581,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1661,7 +1598,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1615,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1632,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1649,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1729,7 +1666,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1746,7 +1683,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1763,7 +1700,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1780,7 +1717,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1797,7 +1734,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1814,7 +1751,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1831,7 +1768,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1776,7 @@
         <v>142</v>
       </c>
       <c r="C14">
-        <v>256.08999999999997</v>
+        <v>256.09</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>267</v>
@@ -1848,7 +1785,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1865,7 +1802,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1882,7 +1819,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1899,7 +1836,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1853,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +1861,7 @@
         <v>147</v>
       </c>
       <c r="C19">
-        <v>301.04000000000002</v>
+        <v>301.04</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>272</v>
@@ -1933,7 +1870,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1941,7 +1878,7 @@
         <v>148</v>
       </c>
       <c r="C20">
-        <v>301.08999999999997</v>
+        <v>301.09</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>273</v>
@@ -1950,7 +1887,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +1904,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1984,7 +1921,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1992,7 +1929,7 @@
         <v>151</v>
       </c>
       <c r="C23">
-        <v>307.20999999999998</v>
+        <v>307.21</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>276</v>
@@ -2001,7 +1938,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2018,7 +1955,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2035,7 +1972,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2052,7 +1989,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2069,7 +2006,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2086,7 +2023,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2103,7 +2040,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2120,7 +2057,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2137,7 +2074,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2154,7 +2091,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2171,7 +2108,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2188,7 +2125,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2205,7 +2142,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2222,7 +2159,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2239,7 +2176,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2256,7 +2193,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2273,7 +2210,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2290,7 +2227,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2307,7 +2244,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2324,7 +2261,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2341,7 +2278,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2358,7 +2295,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2375,7 +2312,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2392,7 +2329,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2409,7 +2346,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2426,7 +2363,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2443,7 +2380,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2460,7 +2397,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2477,7 +2414,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2494,7 +2431,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2511,7 +2448,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2528,7 +2465,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2536,7 +2473,7 @@
         <v>183</v>
       </c>
       <c r="C55">
-        <v>798.06</v>
+        <v>798.0599999999999</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>308</v>
@@ -2545,7 +2482,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2562,7 +2499,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2579,7 +2516,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2587,7 +2524,7 @@
         <v>186</v>
       </c>
       <c r="C58">
-        <v>521.41999999999996</v>
+        <v>521.42</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>311</v>
@@ -2596,7 +2533,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2604,7 +2541,7 @@
         <v>187</v>
       </c>
       <c r="C59">
-        <v>566.08000000000004</v>
+        <v>566.08</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>312</v>
@@ -2613,7 +2550,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2630,7 +2567,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2647,7 +2584,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2664,7 +2601,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2681,7 +2618,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2698,7 +2635,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2715,7 +2652,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2732,7 +2669,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2749,7 +2686,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2766,7 +2703,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2783,7 +2720,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2791,7 +2728,7 @@
         <v>198</v>
       </c>
       <c r="C70">
-        <v>1067.1400000000001</v>
+        <v>1067.14</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>323</v>
@@ -2800,7 +2737,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2817,7 +2754,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2825,7 +2762,7 @@
         <v>200</v>
       </c>
       <c r="C72">
-        <v>1185.6099999999999</v>
+        <v>1185.61</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>325</v>
@@ -2834,7 +2771,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2851,7 +2788,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2868,7 +2805,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2885,7 +2822,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2902,7 +2839,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2919,7 +2856,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2936,7 +2873,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2953,7 +2890,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2970,7 +2907,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2987,7 +2924,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -3004,7 +2941,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -3021,7 +2958,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -3038,7 +2975,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -3055,7 +2992,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -3063,7 +3000,7 @@
         <v>214</v>
       </c>
       <c r="C86">
-        <v>157.91999999999999</v>
+        <v>157.92</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>339</v>
@@ -3072,7 +3009,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3089,7 +3026,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -3106,7 +3043,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -3123,7 +3060,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -3140,7 +3077,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -3157,7 +3094,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -3174,7 +3111,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3191,7 +3128,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -3208,7 +3145,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -3216,7 +3153,7 @@
         <v>223</v>
       </c>
       <c r="C95">
-        <v>643.82000000000005</v>
+        <v>643.8200000000001</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>348</v>
@@ -3225,7 +3162,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -3242,7 +3179,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -3250,7 +3187,7 @@
         <v>225</v>
       </c>
       <c r="C97">
-        <v>927.69</v>
+        <v>927.6900000000001</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>350</v>
@@ -3259,7 +3196,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -3267,7 +3204,7 @@
         <v>226</v>
       </c>
       <c r="C98">
-        <v>1082.3499999999999</v>
+        <v>1082.35</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>351</v>
@@ -3276,7 +3213,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -3293,7 +3230,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -3310,7 +3247,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -3327,7 +3264,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -3344,7 +3281,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3361,7 +3298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -3378,7 +3315,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3395,7 +3332,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -3412,7 +3349,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -3429,7 +3366,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -3446,7 +3383,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3463,7 +3400,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -3471,7 +3408,7 @@
         <v>238</v>
       </c>
       <c r="C110">
-        <v>295.97000000000003</v>
+        <v>295.97</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>363</v>
@@ -3480,7 +3417,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -3497,7 +3434,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3514,7 +3451,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -3531,7 +3468,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -3548,7 +3485,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -3556,7 +3493,7 @@
         <v>243</v>
       </c>
       <c r="C115">
-        <v>544.20000000000005</v>
+        <v>544.2</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>368</v>
@@ -3565,7 +3502,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -3582,7 +3519,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -3590,7 +3527,7 @@
         <v>245</v>
       </c>
       <c r="C117">
-        <v>609.04999999999995</v>
+        <v>609.05</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>370</v>
@@ -3599,7 +3536,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -3616,7 +3553,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -3633,7 +3570,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -3650,7 +3587,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -3667,7 +3604,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -3684,7 +3621,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -3701,7 +3638,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -3718,7 +3655,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -3735,7 +3672,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -3754,131 +3691,131 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
